--- a/Data/test_dataset1.xlsx
+++ b/Data/test_dataset1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\uml\mohammadT\GitHub\MkBth2025\Data\For WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E5C770-A8F1-4BA2-9C55-696C18344EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD94274-ABA9-48AF-9172-D7EBE9DF5E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9017" xr2:uid="{CD726DAA-6090-4DB9-ACE2-8F8A777FC072}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="171">
   <si>
     <t>@startuml
 |Site Visitor|
@@ -5530,6 +5530,9 @@
 :User session ends;
 stop
 @enduml</t>
+  </si>
+  <si>
+    <t>Some of data are shown here</t>
   </si>
 </sst>
 </file>
@@ -6028,7 +6031,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6040,6 +6043,7 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6399,7 +6403,7 @@
   <dimension ref="A1:BH51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6954,6 +6958,9 @@
       </c>
     </row>
     <row r="4" spans="1:60" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
